--- a/Empleados JP.xlsx
+++ b/Empleados JP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\TEC\C++\Segundo Semestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\TEC\C++\Segundo Semestre\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AD848F6-8A2C-46F9-840C-8620E7E0AB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A220D25-1F01-46B9-ABEE-146F855A63FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{644D80C6-9F2C-4A47-BD5D-99191DBCABEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
   <si>
     <t>Nombre</t>
   </si>
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>+52 55 1637 0125</t>
+  </si>
+  <si>
+    <t>Rango</t>
+  </si>
+  <si>
+    <t>Administrador (1)</t>
+  </si>
+  <si>
+    <t>Empelado Planta (2)</t>
   </si>
 </sst>
 </file>
@@ -631,434 +640,476 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F63191-DD6F-4EB6-A7E9-FEFC719611EF}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:F21"/>
+      <selection activeCell="B11" sqref="B11:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" customWidth="1"/>
     <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="7">
+      <c r="D2" s="7">
         <v>11203602</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>10</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="G2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="5">
         <v>15263</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7">
+      <c r="D3" s="7">
         <v>21986795</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>9</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="H3" s="5" t="s">
         <v>34</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8">
+      <c r="D4" s="8">
         <v>21293648</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>8</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="H4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8">
+      <c r="D5" s="8">
         <v>21986795</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>8</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="H5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8">
+      <c r="D6" s="8">
         <v>12023562</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>12</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2">
         <v>19230</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="8">
+      <c r="D7" s="8">
         <v>22948753</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>8</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8">
+      <c r="D8" s="8">
         <v>22036248</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>8</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="H8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8">
+      <c r="D9" s="8">
         <v>22635281</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>8</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="H9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="8">
+      <c r="D10" s="8">
         <v>13026587</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>10</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>3</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="G10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="2">
         <v>16530</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8">
+      <c r="D11" s="8">
         <v>23948753</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>8</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>3</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="H11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="8">
+      <c r="D12" s="8">
         <v>23125360</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>8</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>3</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="H12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="8">
+      <c r="D13" s="8">
         <v>23452306</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>9</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>3</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="H13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>34</v>
       </c>
     </row>
